--- a/P11/Scrum_Sprint_5.xlsx
+++ b/P11/Scrum_Sprint_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\cse1325\P11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8084D78-809F-47CD-A410-F02D25B6F8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF96B07-3999-4EBB-86C9-77B6EE7A7EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="168">
   <si>
     <t>Product Name:</t>
   </si>
@@ -536,10 +536,16 @@
     <t>Using Generic Save Code</t>
   </si>
   <si>
-    <t>Completed Day 2</t>
-  </si>
-  <si>
     <t>In Work</t>
+  </si>
+  <si>
+    <t>Completed Day 6</t>
+  </si>
+  <si>
+    <t>Completed Day 4</t>
+  </si>
+  <si>
+    <t>couldn't understand how to implement the generic save code</t>
   </si>
 </sst>
 </file>
@@ -2612,10 +2618,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
@@ -2624,10 +2630,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10336,7 +10342,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10474,11 +10480,11 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -10492,7 +10498,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -10514,7 +10520,7 @@
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -10546,11 +10552,11 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -10564,7 +10570,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -10616,7 +10622,7 @@
         <v>160</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F17" s="38"/>
     </row>
@@ -10630,7 +10636,7 @@
         <v>161</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F18" s="38"/>
     </row>
@@ -10662,7 +10668,7 @@
       </c>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -10672,9 +10678,11 @@
         <v>163</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="38"/>
+        <v>164</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -10686,7 +10694,7 @@
         <v>161</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22" s="38"/>
     </row>
